--- a/public/download/topic.xlsx
+++ b/public/download/topic.xlsx
@@ -122,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,7 +408,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,7 +462,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -481,7 +482,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -518,7 +519,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -531,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>

--- a/public/download/topic.xlsx
+++ b/public/download/topic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,22 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父级序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试评分项目1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试考核项2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试评分项目2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,15 +58,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试考核项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试考核项3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试评分项目3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试评分项目4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试评分项目5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,14 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
@@ -421,8 +459,8 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -437,105 +475,97 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/topic.xlsx
+++ b/public/download/topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试评分项目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试评分项目2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试考核点1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,6 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试考核项3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试评分项目3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,35 +62,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试考核项2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试考核项1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试考核项1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试考核项1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>测试考核项1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试评分项目1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试评分项目1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,19 +102,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试考核项2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试评分项目4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试评分项目5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试考核项2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试评分项目2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试评分项目2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试评分项目2.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,10 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,95 +488,120 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
+      <c r="E9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
